--- a/model/results/mix5_ggpos_h2pos/v_abated.xlsx
+++ b/model/results/mix5_ggpos_h2pos/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-3.441644962240017e-09</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>977956.2578323151</v>
+        <v>1759073.6963272</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2588560.000000033</v>
+        <v>2588560.000000005</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>384253.3333333333</v>
+        <v>1255386.666666667</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>977956.2578323151</v>
+        <v>1759073.696327201</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2588560.000000002</v>
+        <v>2588560.000000005</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1639640</v>
+        <v>1255386.666666667</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3565064.362993865</v>
+        <v>1759073.696327201</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2588560.000000002</v>
+        <v>2588560.000000005</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2895026.666666667</v>
+        <v>2510773.333333333</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4534666.666666667</v>
+        <v>4206330.796019902</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2588560.000000002</v>
+        <v>2588560.000000005</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>1341329.615384615</v>
+        <v>1374582.307692308</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4150413.333333334</v>
+        <v>3766160</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4534666.666666667</v>
+        <v>4206330.796019902</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2588560.000000002</v>
+        <v>2588560.000000005</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4534666.666666667</v>
+        <v>4206330.796019902</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4150413.333333327</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>1.510811078740342e-08</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4534666.666666667</v>
+        <v>4206330.796019902</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4150413.333333342</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G13" t="n">
-        <v>7.554055393701708e-09</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4534666.666666667</v>
+        <v>4206330.796019902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1443,13 +1443,13 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>1341329.615384616</v>
+        <v>1213364.652698049</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>192126.6666666667</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>4150413.333333334</v>
       </c>
       <c r="G14" t="n">
-        <v>1.510811078740342e-08</v>
+        <v>888585.8333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4534666.666666667</v>
+        <v>4206330.796019901</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1517,13 +1517,13 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>1341329.615384616</v>
+        <v>1213364.652698049</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>192126.6666666667</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>4150413.333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>1.510811078740342e-08</v>
+        <v>888585.8333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4534666.666666687</v>
+        <v>4206330.796019901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>1213364.652698049</v>
+        <v>1213364.652698062</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4206330.796019929</v>
+        <v>4206330.796019931</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>1213364.652698049</v>
+        <v>1213364.652698062</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333331</v>
       </c>
       <c r="G17" t="n">
         <v>888585.8333333333</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4206330.796019927</v>
+        <v>4206330.796019931</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>1213364.652698049</v>
+        <v>1213364.652698057</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1754,13 +1754,13 @@
         <v>4150413.333333334</v>
       </c>
       <c r="G18" t="n">
-        <v>888585.8333333333</v>
+        <v>888585.833333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4206330.796019929</v>
+        <v>4206330.796019901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>1213364.652698049</v>
+        <v>1213364.652698062</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1828,13 +1828,13 @@
         <v>4150413.333333334</v>
       </c>
       <c r="G19" t="n">
-        <v>888585.8333333333</v>
+        <v>888585.833333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4206330.796019929</v>
+        <v>4206330.796019931</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>1213364.652698049</v>
+        <v>1213364.652698061</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1899,16 +1899,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333304</v>
       </c>
       <c r="G20" t="n">
-        <v>888585.8333333333</v>
+        <v>888585.833333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4206330.796019929</v>
+        <v>4206330.796019931</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>1213364.652698049</v>
+        <v>1213364.652698114</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333304</v>
       </c>
       <c r="G21" t="n">
         <v>888585.8333333333</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4206330.796019921</v>
+        <v>4206330.796019916</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
